--- a/#Stundenaufzeichnung_Vorlage_2023_erweiterte_Zeiten.xlsx
+++ b/#Stundenaufzeichnung_Vorlage_2023_erweiterte_Zeiten.xlsx
@@ -67,10 +67,10 @@
     <t xml:space="preserve">Summe</t>
   </si>
   <si>
-    <t xml:space="preserve">Beschreibung deiner Tätigkeit</t>
+    <t xml:space="preserve">PHP Laravel Tutorial durchgearbeiten (nicht fertig) und organisatorisches. ASCIIDOC file geschrieben.</t>
   </si>
   <si>
-    <t xml:space="preserve">PHP Laravel Tutorial durcharbeiten (nicht fertig) und organisatorisches. ASCIIDOC file geschrieben.</t>
+    <t xml:space="preserve">Laravel Tuturial Fertig. Zur Übung mini CRUD application geschrieben. Nötige Software installiert.Filament angefangne &amp; geübt. Tutorials gesehen. Erstes kleines Projekt angefangen.</t>
   </si>
   <si>
     <t xml:space="preserve">Summe WO1</t>
@@ -104,7 +104,7 @@
     <numFmt numFmtId="169" formatCode="General"/>
     <numFmt numFmtId="170" formatCode="0&quot; h&quot;"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -218,6 +218,12 @@
       <name val="Axalp Grotesk"/>
       <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Axalp Grotesk"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="12"/>
@@ -392,208 +398,216 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="18" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="19" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -680,9 +694,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>7252920</xdr:colOff>
+      <xdr:colOff>7252560</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>1800</xdr:rowOff>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -695,8 +709,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10080000" y="444600"/>
-          <a:ext cx="2731680" cy="1643040"/>
+          <a:off x="10081440" y="444600"/>
+          <a:ext cx="2731320" cy="1642680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -724,1438 +738,1438 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="129.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="129.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="23.74"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" s="2" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" s="7" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" s="3" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" s="8" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" s="7" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" s="8" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="n">
+      <c r="B4" s="10" t="n">
         <v>45145</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="6"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="7"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="n">
+      <c r="B6" s="11" t="n">
         <v>154</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="n">
+      <c r="B7" s="14" t="n">
         <v>15.24</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10"/>
-      <c r="B8" s="16" t="n">
+      <c r="A8" s="11"/>
+      <c r="B8" s="17" t="n">
         <f aca="false">B6-B7</f>
         <v>138.76</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" s="19" customFormat="true" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" s="20" customFormat="true" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21" t="n">
+    <row r="11" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22" t="n">
         <v>0.333333333333333</v>
       </c>
-      <c r="C11" s="21" t="n">
+      <c r="C11" s="22" t="n">
         <v>0.708333333333333</v>
       </c>
-      <c r="D11" s="21" t="n">
+      <c r="D11" s="22" t="n">
         <v>0.5</v>
       </c>
-      <c r="E11" s="21" t="n">
+      <c r="E11" s="22" t="n">
         <v>0.520833333333333</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="23" t="n">
+      <c r="G11" s="24" t="n">
         <f aca="false">(C11-B11)*24-(E11-D11)*24</f>
         <v>8.50000000000001</v>
       </c>
     </row>
-    <row r="12" s="24" customFormat="true" ht="51.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="C12" s="21" t="n">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D12" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="21" t="n">
-        <v>0.520833333333333</v>
-      </c>
-      <c r="F12" s="25" t="s">
+    <row r="12" s="25" customFormat="true" ht="51.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="21"/>
+      <c r="B12" s="22" t="n">
+        <v>0.322916666666667</v>
+      </c>
+      <c r="C12" s="26" t="n">
+        <v>0.677083333333333</v>
+      </c>
+      <c r="D12" s="22" t="n">
+        <v>0.513888888888889</v>
+      </c>
+      <c r="E12" s="26" t="n">
+        <v>0.534722222222222</v>
+      </c>
+      <c r="F12" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="26" t="n">
+      <c r="G12" s="27" t="n">
         <f aca="false">(C12-B12)*24-(E12-D12)*24</f>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="13" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="27" t="n">
         <f aca="false">(C13-B13)*24-(E13-D13)*24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="24" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="26" t="n">
+    <row r="14" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="21"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="27" t="n">
         <f aca="false">(C14-B14)*24-(E14-D14)*24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="26" t="n">
+    <row r="15" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="27" t="n">
         <f aca="false">(C15-B15)*24-(E15-D15)*24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="27" t="s">
+    <row r="16" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="30" t="n">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="32" t="n">
         <f aca="false">G11+G12+G13+G14+G15</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="26" t="n">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="17" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="27" t="n">
         <f aca="false">(C17-B17)*24-(E17-D17)*24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="26" t="n">
+    <row r="18" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="27" t="n">
         <f aca="false">(C18-B18)*24-(E18-D18)*24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="26" t="n">
+    <row r="19" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="21"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="27" t="n">
         <f aca="false">(C19-B19)*24-(E19-D19)*24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="26" t="n">
+    <row r="20" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="21"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="27" t="n">
         <f aca="false">(C20-B20)*24-(E20-D20)*24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="26" t="n">
+    <row r="21" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="21"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="27" t="n">
         <f aca="false">(C21-B21)*24-(E21-D21)*24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="27" t="s">
+    <row r="22" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="30" t="n">
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="32" t="n">
         <f aca="false">G17+G18+G19+G20+G21</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="26" t="n">
+    <row r="23" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="21"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="27" t="n">
         <f aca="false">(C23-B23)*24-(E23-D23)*24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="26" t="n">
+    <row r="24" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="21"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="27" t="n">
         <f aca="false">(C24-B24)*24-(E24-D24)*24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="20"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="26" t="n">
+    <row r="25" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="21"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="27" t="n">
         <f aca="false">(C25-B25)*24-(E25-D25)*24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="20"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="26" t="n">
+    <row r="26" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="27" t="n">
         <f aca="false">(C26-B26)*24-(E26-D26)*24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="20"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="26" t="n">
+    <row r="27" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="21"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="27" t="n">
         <f aca="false">(C27-B27)*24-(E27-D27)*24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="27" t="s">
+    <row r="28" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="30" t="n">
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="32" t="n">
         <f aca="false">G23+G24+G25+G26+G27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="20"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="26" t="n">
+    <row r="29" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="21"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="27" t="n">
         <f aca="false">(C29-B29)*24-(E29-D29)*24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="20"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="26" t="n">
+    <row r="30" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="21"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="27" t="n">
         <f aca="false">(C30-B30)*24-(E30-D30)*24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="20"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="26" t="n">
+    <row r="31" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="21"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="27" t="n">
         <f aca="false">(C31-B31)*24-(E31-D31)*24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="20"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="26" t="n">
+    <row r="32" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="21"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="27" t="n">
         <f aca="false">(C32-B32)*24-(E32-D32)*24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="20"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="26" t="n">
+    <row r="33" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="21"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="27" t="n">
         <f aca="false">(C33-B33)*24-(E33-D33)*24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="33" t="s">
+    <row r="34" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="30" t="n">
+      <c r="B34" s="36"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="32" t="n">
         <f aca="false">G29+G30+G31+G32+G33</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="36"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="38"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="40"/>
     </row>
     <row r="36" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="39"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="40" t="s">
+      <c r="A36" s="41"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="13" t="n">
+      <c r="G36" s="14" t="n">
         <f aca="false">G16+G22+G28+G34</f>
-        <v>16</v>
-      </c>
-      <c r="H36" s="41"/>
+        <v>16.5</v>
+      </c>
+      <c r="H36" s="43"/>
     </row>
     <row r="37" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="39"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="40" t="s">
+      <c r="A37" s="41"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="G37" s="13" t="n">
+      <c r="G37" s="14" t="n">
         <v>138.76</v>
       </c>
-      <c r="H37" s="11"/>
+      <c r="H37" s="12"/>
     </row>
     <row r="38" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="39"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="40" t="s">
+      <c r="A38" s="41"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="16" t="n">
+      <c r="G38" s="17" t="n">
         <f aca="false">G37-G36</f>
-        <v>122.76</v>
-      </c>
-      <c r="H38" s="11"/>
+        <v>122.26</v>
+      </c>
+      <c r="H38" s="12"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="43"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="43"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
+      <c r="A40" s="45"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="43"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-    </row>
-    <row r="42" s="46" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="45"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="43"/>
-    </row>
-    <row r="43" s="46" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="45"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="43"/>
-    </row>
-    <row r="44" s="46" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="45"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="43"/>
-    </row>
-    <row r="45" s="46" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="45"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="43"/>
-    </row>
-    <row r="46" s="46" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="45"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="43"/>
-    </row>
-    <row r="47" s="46" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="45"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="43"/>
-    </row>
-    <row r="48" s="46" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="45"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="43"/>
-    </row>
-    <row r="49" s="46" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="45"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="43"/>
-    </row>
-    <row r="50" s="46" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="45"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="43"/>
-    </row>
-    <row r="51" s="46" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="45"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="43"/>
-    </row>
-    <row r="52" s="46" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="45"/>
-      <c r="B52" s="45"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="43"/>
-    </row>
-    <row r="53" s="46" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="45"/>
-      <c r="B53" s="45"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="43"/>
-    </row>
-    <row r="54" s="46" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="45"/>
-      <c r="B54" s="45"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="43"/>
-    </row>
-    <row r="55" s="46" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="45"/>
-      <c r="B55" s="45"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="43"/>
-    </row>
-    <row r="56" s="46" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="45"/>
-      <c r="B56" s="45"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="43"/>
-    </row>
-    <row r="57" s="46" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="45"/>
-      <c r="B57" s="45"/>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="45"/>
-      <c r="F57" s="43"/>
-    </row>
-    <row r="58" s="46" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="45"/>
-      <c r="B58" s="45"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="43"/>
-    </row>
-    <row r="59" s="46" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="45"/>
-      <c r="B59" s="45"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="43"/>
-    </row>
-    <row r="60" s="46" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="47"/>
-      <c r="B60" s="47"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="43"/>
-    </row>
-    <row r="61" s="46" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="47"/>
-      <c r="B61" s="47" t="n">
+      <c r="A41" s="45"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+    </row>
+    <row r="42" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="47"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="45"/>
+    </row>
+    <row r="43" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="47"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="45"/>
+    </row>
+    <row r="44" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="47"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="45"/>
+    </row>
+    <row r="45" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="47"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="45"/>
+    </row>
+    <row r="46" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="47"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="45"/>
+    </row>
+    <row r="47" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="47"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="45"/>
+    </row>
+    <row r="48" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="47"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="45"/>
+    </row>
+    <row r="49" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="47"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="45"/>
+    </row>
+    <row r="50" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="47"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="45"/>
+    </row>
+    <row r="51" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="47"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="45"/>
+    </row>
+    <row r="52" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="47"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="45"/>
+    </row>
+    <row r="53" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="47"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="45"/>
+    </row>
+    <row r="54" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="47"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="45"/>
+    </row>
+    <row r="55" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="47"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="45"/>
+    </row>
+    <row r="56" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="47"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="45"/>
+    </row>
+    <row r="57" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="47"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="45"/>
+    </row>
+    <row r="58" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="47"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="45"/>
+    </row>
+    <row r="59" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="47"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="47"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="45"/>
+    </row>
+    <row r="60" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="49"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="49"/>
+      <c r="F60" s="45"/>
+    </row>
+    <row r="61" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="49"/>
+      <c r="B61" s="49" t="n">
         <v>0.625</v>
       </c>
-      <c r="C61" s="47"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="43"/>
-    </row>
-    <row r="62" s="46" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="47"/>
-      <c r="B62" s="47" t="n">
+      <c r="C61" s="49"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="45"/>
+    </row>
+    <row r="62" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="49"/>
+      <c r="B62" s="49" t="n">
         <v>0.628472222222222</v>
       </c>
-      <c r="C62" s="47"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="47"/>
-      <c r="F62" s="43"/>
-    </row>
-    <row r="63" s="46" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="47"/>
-      <c r="B63" s="47" t="n">
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="45"/>
+    </row>
+    <row r="63" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="49"/>
+      <c r="B63" s="49" t="n">
         <v>0.631944444444444</v>
       </c>
-      <c r="C63" s="47"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="47"/>
-      <c r="F63" s="43"/>
-    </row>
-    <row r="64" s="46" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="47"/>
-      <c r="B64" s="47" t="n">
+      <c r="C63" s="49"/>
+      <c r="D63" s="49"/>
+      <c r="E63" s="49"/>
+      <c r="F63" s="45"/>
+    </row>
+    <row r="64" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="49"/>
+      <c r="B64" s="49" t="n">
         <v>0.635416666666667</v>
       </c>
-      <c r="C64" s="47"/>
-      <c r="D64" s="47"/>
-      <c r="E64" s="47"/>
-      <c r="F64" s="43"/>
-    </row>
-    <row r="65" s="46" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="47"/>
-      <c r="B65" s="47" t="n">
+      <c r="C64" s="49"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="45"/>
+    </row>
+    <row r="65" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="49"/>
+      <c r="B65" s="49" t="n">
         <v>0.638888888888889</v>
       </c>
-      <c r="C65" s="47"/>
-      <c r="D65" s="47"/>
-      <c r="E65" s="47"/>
-      <c r="F65" s="43"/>
-    </row>
-    <row r="66" s="46" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="47"/>
-      <c r="B66" s="47" t="n">
+      <c r="C65" s="49"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="45"/>
+    </row>
+    <row r="66" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="49"/>
+      <c r="B66" s="49" t="n">
         <v>0.642361111111111</v>
       </c>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="43"/>
-    </row>
-    <row r="67" s="46" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="48"/>
-      <c r="B67" s="47" t="n">
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="45"/>
+    </row>
+    <row r="67" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="50"/>
+      <c r="B67" s="49" t="n">
         <v>0.645833333333333</v>
       </c>
-      <c r="C67" s="48"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="47"/>
-      <c r="F67" s="43"/>
-    </row>
-    <row r="68" s="46" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="47" t="n">
+      <c r="C67" s="50"/>
+      <c r="D67" s="50"/>
+      <c r="E67" s="49"/>
+      <c r="F67" s="45"/>
+    </row>
+    <row r="68" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="49" t="n">
         <v>0.291666666666667</v>
       </c>
-      <c r="B68" s="49" t="n">
+      <c r="B68" s="51" t="n">
         <v>0.649305555555556</v>
       </c>
-      <c r="C68" s="47" t="n">
+      <c r="C68" s="49" t="n">
         <v>0.479166666666667</v>
       </c>
-      <c r="D68" s="47" t="n">
+      <c r="D68" s="49" t="n">
         <v>0.5</v>
       </c>
-      <c r="E68" s="47" t="n">
+      <c r="E68" s="49" t="n">
         <v>0.5</v>
       </c>
-      <c r="F68" s="43"/>
-    </row>
-    <row r="69" s="46" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="47" t="n">
+      <c r="F68" s="45"/>
+    </row>
+    <row r="69" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="49" t="n">
         <v>0.295138888888889</v>
       </c>
-      <c r="B69" s="49" t="n">
+      <c r="B69" s="51" t="n">
         <v>0.652777777777778</v>
       </c>
-      <c r="C69" s="47" t="n">
+      <c r="C69" s="49" t="n">
         <v>0.482638888888889</v>
       </c>
-      <c r="D69" s="47" t="n">
+      <c r="D69" s="49" t="n">
         <v>0.503472222222222</v>
       </c>
-      <c r="E69" s="47" t="n">
+      <c r="E69" s="49" t="n">
         <v>0.503472222222222</v>
       </c>
-      <c r="F69" s="43"/>
-    </row>
-    <row r="70" s="46" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="47" t="n">
+      <c r="F69" s="45"/>
+    </row>
+    <row r="70" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="49" t="n">
         <v>0.298611111111111</v>
       </c>
-      <c r="B70" s="50" t="n">
+      <c r="B70" s="52" t="n">
         <v>0.65625</v>
       </c>
-      <c r="C70" s="47" t="n">
+      <c r="C70" s="49" t="n">
         <v>0.486111111111111</v>
       </c>
-      <c r="D70" s="47" t="n">
+      <c r="D70" s="49" t="n">
         <v>0.506944444444444</v>
       </c>
-      <c r="E70" s="47" t="n">
+      <c r="E70" s="49" t="n">
         <v>0.506944444444444</v>
       </c>
-      <c r="F70" s="43"/>
-    </row>
-    <row r="71" s="46" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="47" t="n">
+      <c r="F70" s="45"/>
+    </row>
+    <row r="71" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="49" t="n">
         <v>0.302083333333333</v>
       </c>
-      <c r="B71" s="50" t="n">
+      <c r="B71" s="52" t="n">
         <v>0.659722222222222</v>
       </c>
-      <c r="C71" s="47" t="n">
+      <c r="C71" s="49" t="n">
         <v>0.489583333333333</v>
       </c>
-      <c r="D71" s="47" t="n">
+      <c r="D71" s="49" t="n">
         <v>0.510416666666667</v>
       </c>
-      <c r="E71" s="47" t="n">
+      <c r="E71" s="49" t="n">
         <v>0.510416666666667</v>
       </c>
-      <c r="F71" s="43"/>
-    </row>
-    <row r="72" s="46" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="47" t="n">
+      <c r="F71" s="45"/>
+    </row>
+    <row r="72" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="49" t="n">
         <v>0.305555555555556</v>
       </c>
-      <c r="B72" s="50" t="n">
+      <c r="B72" s="52" t="n">
         <v>0.663194444444444</v>
       </c>
-      <c r="C72" s="47" t="n">
+      <c r="C72" s="49" t="n">
         <v>0.493055555555555</v>
       </c>
-      <c r="D72" s="47" t="n">
+      <c r="D72" s="49" t="n">
         <v>0.513888888888889</v>
       </c>
-      <c r="E72" s="47" t="n">
+      <c r="E72" s="49" t="n">
         <v>0.513888888888889</v>
       </c>
-      <c r="F72" s="43"/>
-    </row>
-    <row r="73" s="46" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="47" t="n">
+      <c r="F72" s="45"/>
+    </row>
+    <row r="73" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="49" t="n">
         <v>0.309027777777778</v>
       </c>
-      <c r="B73" s="47" t="n">
+      <c r="B73" s="49" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="C73" s="47" t="n">
+      <c r="C73" s="49" t="n">
         <v>0.496527777777778</v>
       </c>
-      <c r="D73" s="47" t="n">
+      <c r="D73" s="49" t="n">
         <v>0.517361111111111</v>
       </c>
-      <c r="E73" s="47" t="n">
+      <c r="E73" s="49" t="n">
         <v>0.517361111111111</v>
       </c>
-      <c r="F73" s="43"/>
-    </row>
-    <row r="74" s="46" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="47" t="n">
+      <c r="F73" s="45"/>
+    </row>
+    <row r="74" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="49" t="n">
         <v>0.3125</v>
       </c>
-      <c r="B74" s="47" t="n">
+      <c r="B74" s="49" t="n">
         <v>0.670138888888889</v>
       </c>
-      <c r="C74" s="47" t="n">
+      <c r="C74" s="49" t="n">
         <v>0.5</v>
       </c>
-      <c r="D74" s="47" t="n">
+      <c r="D74" s="49" t="n">
         <v>0.520833333333333</v>
       </c>
-      <c r="E74" s="47" t="n">
+      <c r="E74" s="49" t="n">
         <v>0.520833333333333</v>
       </c>
-      <c r="F74" s="43"/>
-    </row>
-    <row r="75" s="46" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="47" t="n">
+      <c r="F74" s="45"/>
+    </row>
+    <row r="75" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="49" t="n">
         <v>0.315972222222222</v>
       </c>
-      <c r="B75" s="47" t="n">
+      <c r="B75" s="49" t="n">
         <v>0.673611111111111</v>
       </c>
-      <c r="C75" s="47" t="n">
+      <c r="C75" s="49" t="n">
         <v>0.503472222222222</v>
       </c>
-      <c r="D75" s="47" t="n">
+      <c r="D75" s="49" t="n">
         <v>0.524305555555555</v>
       </c>
-      <c r="E75" s="47" t="n">
+      <c r="E75" s="49" t="n">
         <v>0.524305555555555</v>
       </c>
-      <c r="F75" s="43"/>
-    </row>
-    <row r="76" s="46" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="47" t="n">
+      <c r="F75" s="45"/>
+    </row>
+    <row r="76" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="49" t="n">
         <v>0.319444444444444</v>
       </c>
-      <c r="B76" s="47" t="n">
+      <c r="B76" s="49" t="n">
         <v>0.677083333333333</v>
       </c>
-      <c r="C76" s="47" t="n">
+      <c r="C76" s="49" t="n">
         <v>0.506944444444444</v>
       </c>
-      <c r="D76" s="47" t="n">
+      <c r="D76" s="49" t="n">
         <v>0.527777777777778</v>
       </c>
-      <c r="E76" s="47" t="n">
+      <c r="E76" s="49" t="n">
         <v>0.527777777777778</v>
       </c>
-      <c r="F76" s="43"/>
-    </row>
-    <row r="77" s="46" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="47" t="n">
+      <c r="F76" s="45"/>
+    </row>
+    <row r="77" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="49" t="n">
         <v>0.322916666666667</v>
       </c>
-      <c r="B77" s="47" t="n">
+      <c r="B77" s="49" t="n">
         <v>0.680555555555555</v>
       </c>
-      <c r="C77" s="47" t="n">
+      <c r="C77" s="49" t="n">
         <v>0.510416666666667</v>
       </c>
-      <c r="D77" s="47" t="n">
+      <c r="D77" s="49" t="n">
         <v>0.53125</v>
       </c>
-      <c r="E77" s="47" t="n">
+      <c r="E77" s="49" t="n">
         <v>0.53125</v>
       </c>
-      <c r="F77" s="43"/>
-    </row>
-    <row r="78" s="46" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="47" t="n">
+      <c r="F77" s="45"/>
+    </row>
+    <row r="78" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="49" t="n">
         <v>0.326388888888889</v>
       </c>
-      <c r="B78" s="47" t="n">
+      <c r="B78" s="49" t="n">
         <v>0.684027777777778</v>
       </c>
-      <c r="C78" s="47" t="n">
+      <c r="C78" s="49" t="n">
         <v>0.513888888888889</v>
       </c>
-      <c r="D78" s="47" t="n">
+      <c r="D78" s="49" t="n">
         <v>0.534722222222222</v>
       </c>
-      <c r="E78" s="47" t="n">
+      <c r="E78" s="49" t="n">
         <v>0.534722222222222</v>
       </c>
-      <c r="F78" s="43"/>
+      <c r="F78" s="45"/>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="47" t="n">
+      <c r="A79" s="49" t="n">
         <v>0.329861111111111</v>
       </c>
-      <c r="B79" s="47" t="n">
+      <c r="B79" s="49" t="n">
         <v>0.6875</v>
       </c>
-      <c r="C79" s="47" t="n">
+      <c r="C79" s="49" t="n">
         <v>0.517361111111111</v>
       </c>
-      <c r="D79" s="47" t="n">
+      <c r="D79" s="49" t="n">
         <v>0.538194444444444</v>
       </c>
-      <c r="E79" s="47" t="n">
+      <c r="E79" s="49" t="n">
         <v>0.538194444444444</v>
       </c>
-      <c r="F79" s="43"/>
+      <c r="F79" s="45"/>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="47" t="n">
+      <c r="A80" s="49" t="n">
         <v>0.333333333333333</v>
       </c>
-      <c r="B80" s="47" t="n">
+      <c r="B80" s="49" t="n">
         <v>0.690972222222222</v>
       </c>
-      <c r="C80" s="47" t="n">
+      <c r="C80" s="49" t="n">
         <v>0.520833333333333</v>
       </c>
-      <c r="D80" s="47" t="n">
+      <c r="D80" s="49" t="n">
         <v>0.541666666666667</v>
       </c>
-      <c r="E80" s="47" t="n">
+      <c r="E80" s="49" t="n">
         <v>0.541666666666667</v>
       </c>
-      <c r="F80" s="43"/>
+      <c r="F80" s="45"/>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="47" t="n">
+      <c r="A81" s="49" t="n">
         <v>0.336805555555555</v>
       </c>
-      <c r="B81" s="47" t="n">
+      <c r="B81" s="49" t="n">
         <v>0.694444444444444</v>
       </c>
-      <c r="C81" s="47" t="n">
+      <c r="C81" s="49" t="n">
         <v>0.524305555555555</v>
       </c>
-      <c r="D81" s="47" t="n">
+      <c r="D81" s="49" t="n">
         <v>0.545138888888889</v>
       </c>
-      <c r="E81" s="47" t="n">
+      <c r="E81" s="49" t="n">
         <v>0.545138888888889</v>
       </c>
-      <c r="F81" s="43"/>
+      <c r="F81" s="45"/>
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="47" t="n">
+      <c r="A82" s="49" t="n">
         <v>0.340277777777778</v>
       </c>
-      <c r="B82" s="47" t="n">
+      <c r="B82" s="49" t="n">
         <v>0.697916666666667</v>
       </c>
-      <c r="C82" s="47" t="n">
+      <c r="C82" s="49" t="n">
         <v>0.527777777777778</v>
       </c>
-      <c r="D82" s="47" t="n">
+      <c r="D82" s="49" t="n">
         <v>0.548611111111111</v>
       </c>
-      <c r="E82" s="47" t="n">
+      <c r="E82" s="49" t="n">
         <v>0.548611111111111</v>
       </c>
-      <c r="F82" s="43"/>
+      <c r="F82" s="45"/>
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="47" t="n">
+      <c r="A83" s="49" t="n">
         <v>0.34375</v>
       </c>
-      <c r="B83" s="47" t="n">
+      <c r="B83" s="49" t="n">
         <v>0.701388888888889</v>
       </c>
-      <c r="C83" s="47" t="n">
+      <c r="C83" s="49" t="n">
         <v>0.53125</v>
       </c>
-      <c r="D83" s="47" t="n">
+      <c r="D83" s="49" t="n">
         <v>0.552083333333333</v>
       </c>
-      <c r="E83" s="47" t="n">
+      <c r="E83" s="49" t="n">
         <v>0.552083333333333</v>
       </c>
-      <c r="F83" s="43"/>
+      <c r="F83" s="45"/>
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="47" t="n">
+      <c r="A84" s="49" t="n">
         <v>0.347222222222222</v>
       </c>
-      <c r="B84" s="47" t="n">
+      <c r="B84" s="49" t="n">
         <v>0.704861111111111</v>
       </c>
-      <c r="C84" s="47" t="n">
+      <c r="C84" s="49" t="n">
         <v>0.534722222222222</v>
       </c>
-      <c r="D84" s="47" t="n">
+      <c r="D84" s="49" t="n">
         <v>0.555555555555555</v>
       </c>
-      <c r="E84" s="47" t="n">
+      <c r="E84" s="49" t="n">
         <v>0.555555555555555</v>
       </c>
-      <c r="F84" s="43"/>
+      <c r="F84" s="45"/>
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="47" t="n">
+      <c r="A85" s="49" t="n">
         <v>0.350694444444444</v>
       </c>
-      <c r="B85" s="47" t="n">
+      <c r="B85" s="49" t="n">
         <v>0.708333333333333</v>
       </c>
-      <c r="C85" s="47" t="n">
+      <c r="C85" s="49" t="n">
         <v>0.538194444444444</v>
       </c>
-      <c r="D85" s="47" t="n">
+      <c r="D85" s="49" t="n">
         <v>0.559027777777778</v>
       </c>
-      <c r="E85" s="47" t="n">
+      <c r="E85" s="49" t="n">
         <v>0.559027777777778</v>
       </c>
-      <c r="F85" s="43"/>
+      <c r="F85" s="45"/>
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="47" t="n">
+      <c r="A86" s="49" t="n">
         <v>0.354166666666666</v>
       </c>
-      <c r="B86" s="47" t="n">
+      <c r="B86" s="49" t="n">
         <v>0.711805555555555</v>
       </c>
-      <c r="C86" s="47" t="n">
+      <c r="C86" s="49" t="n">
         <v>0.541666666666667</v>
       </c>
-      <c r="D86" s="47" t="n">
+      <c r="D86" s="49" t="n">
         <v>0.5625</v>
       </c>
-      <c r="E86" s="47" t="n">
+      <c r="E86" s="49" t="n">
         <v>0.5625</v>
       </c>
-      <c r="F86" s="43"/>
+      <c r="F86" s="45"/>
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="47" t="n">
+      <c r="A87" s="49" t="n">
         <v>0.357638888888889</v>
       </c>
-      <c r="B87" s="47" t="n">
+      <c r="B87" s="49" t="n">
         <v>0.715277777777778</v>
       </c>
-      <c r="C87" s="47" t="n">
+      <c r="C87" s="49" t="n">
         <v>0.545138888888889</v>
       </c>
-      <c r="D87" s="47" t="n">
+      <c r="D87" s="49" t="n">
         <v>0.565972222222222</v>
       </c>
-      <c r="E87" s="47" t="n">
+      <c r="E87" s="49" t="n">
         <v>0.565972222222222</v>
       </c>
-      <c r="F87" s="43"/>
+      <c r="F87" s="45"/>
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="47" t="n">
+      <c r="A88" s="49" t="n">
         <v>0.361111111111111</v>
       </c>
-      <c r="B88" s="47" t="n">
+      <c r="B88" s="49" t="n">
         <v>0.71875</v>
       </c>
-      <c r="C88" s="47" t="n">
+      <c r="C88" s="49" t="n">
         <v>0.548611111111111</v>
       </c>
-      <c r="D88" s="47" t="n">
+      <c r="D88" s="49" t="n">
         <v>0.569444444444444</v>
       </c>
-      <c r="E88" s="47" t="n">
+      <c r="E88" s="49" t="n">
         <v>0.569444444444444</v>
       </c>
-      <c r="F88" s="43"/>
+      <c r="F88" s="45"/>
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="47" t="n">
+      <c r="A89" s="49" t="n">
         <v>0.364583333333333</v>
       </c>
-      <c r="B89" s="47" t="n">
+      <c r="B89" s="49" t="n">
         <v>0.722222222222222</v>
       </c>
-      <c r="C89" s="47" t="n">
+      <c r="C89" s="49" t="n">
         <v>0.552083333333333</v>
       </c>
-      <c r="D89" s="47" t="n">
+      <c r="D89" s="49" t="n">
         <v>0.572916666666666</v>
       </c>
-      <c r="E89" s="47" t="n">
+      <c r="E89" s="49" t="n">
         <v>0.572916666666666</v>
       </c>
-      <c r="F89" s="43"/>
+      <c r="F89" s="45"/>
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="47" t="n">
+      <c r="A90" s="49" t="n">
         <v>0.368055555555556</v>
       </c>
-      <c r="B90" s="47" t="n">
+      <c r="B90" s="49" t="n">
         <v>0.725694444444444</v>
       </c>
-      <c r="C90" s="47" t="n">
+      <c r="C90" s="49" t="n">
         <v>0.555555555555555</v>
       </c>
-      <c r="D90" s="47" t="n">
+      <c r="D90" s="49" t="n">
         <v>0.576388888888889</v>
       </c>
-      <c r="E90" s="47" t="n">
+      <c r="E90" s="49" t="n">
         <v>0.576388888888889</v>
       </c>
-      <c r="F90" s="43"/>
+      <c r="F90" s="45"/>
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="47" t="n">
+      <c r="A91" s="49" t="n">
         <v>0.371527777777778</v>
       </c>
-      <c r="B91" s="47" t="n">
+      <c r="B91" s="49" t="n">
         <v>0.729166666666666</v>
       </c>
-      <c r="C91" s="47" t="n">
+      <c r="C91" s="49" t="n">
         <v>0.559027777777777</v>
       </c>
-      <c r="D91" s="47" t="n">
+      <c r="D91" s="49" t="n">
         <v>0.579861111111111</v>
       </c>
-      <c r="E91" s="47" t="n">
+      <c r="E91" s="49" t="n">
         <v>0.579861111111111</v>
       </c>
-      <c r="F91" s="43"/>
+      <c r="F91" s="45"/>
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="47" t="n">
+      <c r="A92" s="49" t="n">
         <v>0.375</v>
       </c>
-      <c r="B92" s="47" t="n">
+      <c r="B92" s="49" t="n">
         <v>0.732638888888889</v>
       </c>
-      <c r="C92" s="47" t="n">
+      <c r="C92" s="49" t="n">
         <v>0.5625</v>
       </c>
-      <c r="D92" s="47" t="n">
+      <c r="D92" s="49" t="n">
         <v>0.583333333333333</v>
       </c>
-      <c r="E92" s="47" t="n">
+      <c r="E92" s="49" t="n">
         <v>0.583333333333333</v>
       </c>
-      <c r="F92" s="43"/>
+      <c r="F92" s="45"/>
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="46"/>
-      <c r="B93" s="47" t="n">
+      <c r="A93" s="48"/>
+      <c r="B93" s="49" t="n">
         <v>0.736111111111111</v>
       </c>
-      <c r="C93" s="46"/>
-      <c r="D93" s="46"/>
-      <c r="E93" s="47" t="n">
+      <c r="C93" s="48"/>
+      <c r="D93" s="48"/>
+      <c r="E93" s="49" t="n">
         <v>0.586805555555555</v>
       </c>
-      <c r="F93" s="43"/>
+      <c r="F93" s="45"/>
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="46"/>
-      <c r="B94" s="47" t="n">
+      <c r="A94" s="48"/>
+      <c r="B94" s="49" t="n">
         <v>0.739583333333333</v>
       </c>
-      <c r="C94" s="46"/>
-      <c r="D94" s="46"/>
-      <c r="E94" s="47" t="n">
+      <c r="C94" s="48"/>
+      <c r="D94" s="48"/>
+      <c r="E94" s="49" t="n">
         <v>0.590277777777777</v>
       </c>
-      <c r="F94" s="43"/>
+      <c r="F94" s="45"/>
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="46"/>
-      <c r="B95" s="47" t="n">
+      <c r="A95" s="48"/>
+      <c r="B95" s="49" t="n">
         <v>0.743055555555555</v>
       </c>
-      <c r="C95" s="46"/>
-      <c r="D95" s="46"/>
-      <c r="E95" s="47" t="n">
+      <c r="C95" s="48"/>
+      <c r="D95" s="48"/>
+      <c r="E95" s="49" t="n">
         <v>0.59375</v>
       </c>
-      <c r="F95" s="43"/>
+      <c r="F95" s="45"/>
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="46"/>
-      <c r="B96" s="47" t="n">
+      <c r="A96" s="48"/>
+      <c r="B96" s="49" t="n">
         <v>0.746527777777777</v>
       </c>
-      <c r="C96" s="46"/>
-      <c r="D96" s="46"/>
-      <c r="E96" s="47" t="n">
+      <c r="C96" s="48"/>
+      <c r="D96" s="48"/>
+      <c r="E96" s="49" t="n">
         <v>0.597222222222222</v>
       </c>
-      <c r="F96" s="43"/>
+      <c r="F96" s="45"/>
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="46"/>
-      <c r="B97" s="47" t="n">
+      <c r="A97" s="48"/>
+      <c r="B97" s="49" t="n">
         <v>0.75</v>
       </c>
-      <c r="C97" s="46"/>
-      <c r="D97" s="46"/>
-      <c r="E97" s="50" t="n">
+      <c r="C97" s="48"/>
+      <c r="D97" s="48"/>
+      <c r="E97" s="52" t="n">
         <v>0.600694444444444</v>
       </c>
-      <c r="F97" s="43"/>
+      <c r="F97" s="45"/>
     </row>
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="46"/>
-      <c r="B98" s="46"/>
-      <c r="C98" s="46"/>
-      <c r="D98" s="46"/>
-      <c r="E98" s="50" t="n">
+      <c r="A98" s="48"/>
+      <c r="B98" s="48"/>
+      <c r="C98" s="48"/>
+      <c r="D98" s="48"/>
+      <c r="E98" s="52" t="n">
         <v>0.604166666666667</v>
       </c>
-      <c r="F98" s="43"/>
+      <c r="F98" s="45"/>
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="46"/>
-      <c r="B99" s="46"/>
-      <c r="C99" s="46"/>
-      <c r="D99" s="46"/>
-      <c r="E99" s="50" t="n">
+      <c r="A99" s="48"/>
+      <c r="B99" s="48"/>
+      <c r="C99" s="48"/>
+      <c r="D99" s="48"/>
+      <c r="E99" s="52" t="n">
         <v>0.607638888888889</v>
       </c>
-      <c r="F99" s="43"/>
+      <c r="F99" s="45"/>
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="46"/>
-      <c r="B100" s="46"/>
-      <c r="C100" s="46"/>
-      <c r="D100" s="46"/>
-      <c r="E100" s="50" t="n">
+      <c r="A100" s="48"/>
+      <c r="B100" s="48"/>
+      <c r="C100" s="48"/>
+      <c r="D100" s="48"/>
+      <c r="E100" s="52" t="n">
         <v>0.611111111111111</v>
       </c>
-      <c r="F100" s="43"/>
+      <c r="F100" s="45"/>
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="46"/>
-      <c r="B101" s="46"/>
-      <c r="C101" s="46"/>
-      <c r="D101" s="46"/>
-      <c r="E101" s="50" t="n">
+      <c r="A101" s="48"/>
+      <c r="B101" s="48"/>
+      <c r="C101" s="48"/>
+      <c r="D101" s="48"/>
+      <c r="E101" s="52" t="n">
         <v>0.614583333333333</v>
       </c>
-      <c r="F101" s="43"/>
+      <c r="F101" s="45"/>
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="46"/>
-      <c r="B102" s="46"/>
-      <c r="C102" s="46"/>
-      <c r="D102" s="46"/>
-      <c r="E102" s="50" t="n">
+      <c r="A102" s="48"/>
+      <c r="B102" s="48"/>
+      <c r="C102" s="48"/>
+      <c r="D102" s="48"/>
+      <c r="E102" s="52" t="n">
         <v>0.618055555555556</v>
       </c>
-      <c r="F102" s="43"/>
+      <c r="F102" s="45"/>
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="46"/>
-      <c r="B103" s="46"/>
-      <c r="C103" s="46"/>
-      <c r="D103" s="46"/>
-      <c r="E103" s="50" t="n">
+      <c r="A103" s="48"/>
+      <c r="B103" s="48"/>
+      <c r="C103" s="48"/>
+      <c r="D103" s="48"/>
+      <c r="E103" s="52" t="n">
         <v>0.621527777777778</v>
       </c>
-      <c r="F103" s="43"/>
+      <c r="F103" s="45"/>
     </row>
     <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="46"/>
-      <c r="B104" s="46"/>
-      <c r="C104" s="46"/>
-      <c r="D104" s="46"/>
-      <c r="E104" s="50" t="n">
+      <c r="A104" s="48"/>
+      <c r="B104" s="48"/>
+      <c r="C104" s="48"/>
+      <c r="D104" s="48"/>
+      <c r="E104" s="52" t="n">
         <v>0.625</v>
       </c>
-      <c r="F104" s="43"/>
+      <c r="F104" s="45"/>
     </row>
     <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="46"/>
-      <c r="B105" s="46"/>
-      <c r="C105" s="46"/>
-      <c r="D105" s="46"/>
-      <c r="E105" s="50" t="n">
+      <c r="A105" s="48"/>
+      <c r="B105" s="48"/>
+      <c r="C105" s="48"/>
+      <c r="D105" s="48"/>
+      <c r="E105" s="52" t="n">
         <v>0.628472222222222</v>
       </c>
-      <c r="F105" s="43"/>
+      <c r="F105" s="45"/>
     </row>
     <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="46"/>
-      <c r="B106" s="46"/>
-      <c r="C106" s="46"/>
-      <c r="D106" s="46"/>
-      <c r="E106" s="50" t="n">
+      <c r="A106" s="48"/>
+      <c r="B106" s="48"/>
+      <c r="C106" s="48"/>
+      <c r="D106" s="48"/>
+      <c r="E106" s="52" t="n">
         <v>0.631944444444444</v>
       </c>
-      <c r="F106" s="43"/>
+      <c r="F106" s="45"/>
     </row>
     <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="46"/>
-      <c r="B107" s="46"/>
-      <c r="C107" s="46"/>
-      <c r="D107" s="46"/>
-      <c r="E107" s="50" t="n">
+      <c r="A107" s="48"/>
+      <c r="B107" s="48"/>
+      <c r="C107" s="48"/>
+      <c r="D107" s="48"/>
+      <c r="E107" s="52" t="n">
         <v>0.635416666666667</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="46"/>
-      <c r="B108" s="46"/>
-      <c r="C108" s="46"/>
-      <c r="D108" s="46"/>
-      <c r="E108" s="50" t="n">
+      <c r="A108" s="48"/>
+      <c r="B108" s="48"/>
+      <c r="C108" s="48"/>
+      <c r="D108" s="48"/>
+      <c r="E108" s="52" t="n">
         <v>0.638888888888889</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="46"/>
-      <c r="B109" s="46"/>
-      <c r="C109" s="46"/>
-      <c r="D109" s="46"/>
-      <c r="E109" s="50" t="n">
+      <c r="A109" s="48"/>
+      <c r="B109" s="48"/>
+      <c r="C109" s="48"/>
+      <c r="D109" s="48"/>
+      <c r="E109" s="52" t="n">
         <v>0.642361111111111</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="46"/>
-      <c r="B110" s="46"/>
-      <c r="C110" s="46"/>
-      <c r="D110" s="46"/>
-      <c r="E110" s="50" t="n">
+      <c r="A110" s="48"/>
+      <c r="B110" s="48"/>
+      <c r="C110" s="48"/>
+      <c r="D110" s="48"/>
+      <c r="E110" s="52" t="n">
         <v>0.645833333333333</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="46"/>
-      <c r="B111" s="46"/>
-      <c r="C111" s="46"/>
-      <c r="D111" s="46"/>
-      <c r="E111" s="50" t="n">
+      <c r="A111" s="48"/>
+      <c r="B111" s="48"/>
+      <c r="C111" s="48"/>
+      <c r="D111" s="48"/>
+      <c r="E111" s="52" t="n">
         <v>0.649305555555556</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="46"/>
-      <c r="B112" s="46"/>
-      <c r="C112" s="46"/>
-      <c r="D112" s="46"/>
-      <c r="E112" s="50" t="n">
+      <c r="A112" s="48"/>
+      <c r="B112" s="48"/>
+      <c r="C112" s="48"/>
+      <c r="D112" s="48"/>
+      <c r="E112" s="52" t="n">
         <v>0.652777777777778</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="46"/>
-      <c r="B113" s="46"/>
-      <c r="C113" s="46"/>
-      <c r="D113" s="46"/>
-      <c r="E113" s="50" t="n">
+      <c r="A113" s="48"/>
+      <c r="B113" s="48"/>
+      <c r="C113" s="48"/>
+      <c r="D113" s="48"/>
+      <c r="E113" s="52" t="n">
         <v>0.65625</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="46"/>
-      <c r="B114" s="46"/>
-      <c r="C114" s="46"/>
-      <c r="D114" s="46"/>
-      <c r="E114" s="50" t="n">
+      <c r="A114" s="48"/>
+      <c r="B114" s="48"/>
+      <c r="C114" s="48"/>
+      <c r="D114" s="48"/>
+      <c r="E114" s="52" t="n">
         <v>0.659722222222222</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="46"/>
-      <c r="B115" s="46"/>
-      <c r="C115" s="46"/>
-      <c r="D115" s="46"/>
-      <c r="E115" s="50" t="n">
+      <c r="A115" s="48"/>
+      <c r="B115" s="48"/>
+      <c r="C115" s="48"/>
+      <c r="D115" s="48"/>
+      <c r="E115" s="52" t="n">
         <v>0.663194444444444</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="46"/>
-      <c r="B116" s="46"/>
-      <c r="C116" s="46"/>
-      <c r="D116" s="46"/>
-      <c r="E116" s="50" t="n">
+      <c r="A116" s="48"/>
+      <c r="B116" s="48"/>
+      <c r="C116" s="48"/>
+      <c r="D116" s="48"/>
+      <c r="E116" s="52" t="n">
         <v>0.666666666666667</v>
       </c>
     </row>

--- a/#Stundenaufzeichnung_Vorlage_2023_erweiterte_Zeiten.xlsx
+++ b/#Stundenaufzeichnung_Vorlage_2023_erweiterte_Zeiten.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t xml:space="preserve">Stundenaufzeichung</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t xml:space="preserve">Laravel Tuturial Fertig. Zur Übung mini CRUD application geschrieben. Nötige Software installiert.Filament angefangne &amp; geübt. Tutorials gesehen. Erstes kleines Projekt angefangen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filament zur gänze getestet. Kleine Applikationen gebaut. Dashboards ausgetestet. Charts implementiert….</t>
   </si>
   <si>
     <t xml:space="preserve">Summe WO1</t>
@@ -104,7 +107,7 @@
     <numFmt numFmtId="169" formatCode="General"/>
     <numFmt numFmtId="170" formatCode="0&quot; h&quot;"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -218,12 +221,6 @@
       <name val="Axalp Grotesk"/>
       <family val="3"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Axalp Grotesk"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="12"/>
@@ -398,7 +395,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -503,10 +500,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="169" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -515,7 +508,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -523,11 +516,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -539,7 +532,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="18" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -551,19 +544,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -575,39 +568,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="168" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="168" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -694,9 +687,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>7252560</xdr:colOff>
+      <xdr:colOff>7252200</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>1440</xdr:rowOff>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -709,8 +702,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10081440" y="444600"/>
-          <a:ext cx="2731320" cy="1642680"/>
+          <a:off x="10081800" y="444600"/>
+          <a:ext cx="2730960" cy="1642320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -732,8 +725,8 @@
   </sheetPr>
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -870,7 +863,7 @@
     <row r="11" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="21"/>
       <c r="B11" s="22" t="n">
-        <v>0.333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="C11" s="22" t="n">
         <v>0.708333333333333</v>
@@ -886,7 +879,7 @@
       </c>
       <c r="G11" s="24" t="n">
         <f aca="false">(C11-B11)*24-(E11-D11)*24</f>
-        <v>8.50000000000001</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="12" s="25" customFormat="true" ht="51.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -894,33 +887,43 @@
       <c r="B12" s="22" t="n">
         <v>0.322916666666667</v>
       </c>
-      <c r="C12" s="26" t="n">
+      <c r="C12" s="22" t="n">
         <v>0.677083333333333</v>
       </c>
       <c r="D12" s="22" t="n">
         <v>0.513888888888889</v>
       </c>
-      <c r="E12" s="26" t="n">
+      <c r="E12" s="22" t="n">
         <v>0.534722222222222</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="27" t="n">
+      <c r="G12" s="26" t="n">
         <f aca="false">(C12-B12)*24-(E12-D12)*24</f>
         <v>8</v>
       </c>
     </row>
     <row r="13" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="27" t="n">
+      <c r="B13" s="22" t="n">
+        <v>0.322916666666667</v>
+      </c>
+      <c r="C13" s="22" t="n">
+        <v>0.670138888888889</v>
+      </c>
+      <c r="D13" s="22" t="n">
+        <v>0.513888888888889</v>
+      </c>
+      <c r="E13" s="22" t="n">
+        <v>0.534722222222222</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="26" t="n">
         <f aca="false">(C13-B13)*24-(E13-D13)*24</f>
-        <v>0</v>
+        <v>7.83333333333333</v>
       </c>
     </row>
     <row r="14" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -929,8 +932,8 @@
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="27" t="n">
+      <c r="F14" s="27"/>
+      <c r="G14" s="26" t="n">
         <f aca="false">(C14-B14)*24-(E14-D14)*24</f>
         <v>0</v>
       </c>
@@ -941,24 +944,24 @@
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="27" t="n">
+      <c r="F15" s="27"/>
+      <c r="G15" s="26" t="n">
         <f aca="false">(C15-B15)*24-(E15-D15)*24</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="32" t="n">
+      <c r="A16" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31" t="n">
         <f aca="false">G11+G12+G13+G14+G15</f>
-        <v>16.5</v>
+        <v>23.3333333333333</v>
       </c>
     </row>
     <row r="17" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -967,8 +970,8 @@
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="27" t="n">
+      <c r="F17" s="27"/>
+      <c r="G17" s="26" t="n">
         <f aca="false">(C17-B17)*24-(E17-D17)*24</f>
         <v>0</v>
       </c>
@@ -979,8 +982,8 @@
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="27" t="n">
+      <c r="F18" s="27"/>
+      <c r="G18" s="26" t="n">
         <f aca="false">(C18-B18)*24-(E18-D18)*24</f>
         <v>0</v>
       </c>
@@ -991,8 +994,8 @@
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="27" t="n">
+      <c r="F19" s="27"/>
+      <c r="G19" s="26" t="n">
         <f aca="false">(C19-B19)*24-(E19-D19)*24</f>
         <v>0</v>
       </c>
@@ -1003,8 +1006,8 @@
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="27" t="n">
+      <c r="F20" s="27"/>
+      <c r="G20" s="26" t="n">
         <f aca="false">(C20-B20)*24-(E20-D20)*24</f>
         <v>0</v>
       </c>
@@ -1015,22 +1018,22 @@
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="27" t="n">
+      <c r="F21" s="27"/>
+      <c r="G21" s="26" t="n">
         <f aca="false">(C21-B21)*24-(E21-D21)*24</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="32" t="n">
+      <c r="A22" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="31" t="n">
         <f aca="false">G17+G18+G19+G20+G21</f>
         <v>0</v>
       </c>
@@ -1041,8 +1044,8 @@
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="27" t="n">
+      <c r="F23" s="27"/>
+      <c r="G23" s="26" t="n">
         <f aca="false">(C23-B23)*24-(E23-D23)*24</f>
         <v>0</v>
       </c>
@@ -1053,8 +1056,8 @@
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="27" t="n">
+      <c r="F24" s="27"/>
+      <c r="G24" s="26" t="n">
         <f aca="false">(C24-B24)*24-(E24-D24)*24</f>
         <v>0</v>
       </c>
@@ -1065,8 +1068,8 @@
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="27" t="n">
+      <c r="F25" s="27"/>
+      <c r="G25" s="26" t="n">
         <f aca="false">(C25-B25)*24-(E25-D25)*24</f>
         <v>0</v>
       </c>
@@ -1077,8 +1080,8 @@
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="27" t="n">
+      <c r="F26" s="27"/>
+      <c r="G26" s="26" t="n">
         <f aca="false">(C26-B26)*24-(E26-D26)*24</f>
         <v>0</v>
       </c>
@@ -1089,22 +1092,22 @@
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="27" t="n">
+      <c r="F27" s="33"/>
+      <c r="G27" s="26" t="n">
         <f aca="false">(C27-B27)*24-(E27-D27)*24</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="32" t="n">
+      <c r="A28" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="31" t="n">
         <f aca="false">G23+G24+G25+G26+G27</f>
         <v>0</v>
       </c>
@@ -1115,8 +1118,8 @@
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="27" t="n">
+      <c r="F29" s="27"/>
+      <c r="G29" s="26" t="n">
         <f aca="false">(C29-B29)*24-(E29-D29)*24</f>
         <v>0</v>
       </c>
@@ -1127,8 +1130,8 @@
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="27" t="n">
+      <c r="F30" s="27"/>
+      <c r="G30" s="26" t="n">
         <f aca="false">(C30-B30)*24-(E30-D30)*24</f>
         <v>0</v>
       </c>
@@ -1139,8 +1142,8 @@
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="27" t="n">
+      <c r="F31" s="27"/>
+      <c r="G31" s="26" t="n">
         <f aca="false">(C31-B31)*24-(E31-D31)*24</f>
         <v>0</v>
       </c>
@@ -1151,8 +1154,8 @@
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="27" t="n">
+      <c r="F32" s="27"/>
+      <c r="G32" s="26" t="n">
         <f aca="false">(C32-B32)*24-(E32-D32)*24</f>
         <v>0</v>
       </c>
@@ -1164,57 +1167,57 @@
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
       <c r="F33" s="23"/>
-      <c r="G33" s="27" t="n">
+      <c r="G33" s="26" t="n">
         <f aca="false">(C33-B33)*24-(E33-D33)*24</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="32" t="n">
+      <c r="A34" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="35"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="31" t="n">
         <f aca="false">G29+G30+G31+G32+G33</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="38"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="40"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="39"/>
     </row>
     <row r="36" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="41"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="42" t="s">
-        <v>21</v>
+      <c r="A36" s="40"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="41" t="s">
+        <v>22</v>
       </c>
       <c r="G36" s="14" t="n">
         <f aca="false">G16+G22+G28+G34</f>
-        <v>16.5</v>
-      </c>
-      <c r="H36" s="43"/>
+        <v>23.3333333333333</v>
+      </c>
+      <c r="H36" s="42"/>
     </row>
     <row r="37" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="41"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="42" t="s">
+      <c r="A37" s="40"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="41" t="s">
         <v>4</v>
       </c>
       <c r="G37" s="14" t="n">
@@ -1223,953 +1226,953 @@
       <c r="H37" s="12"/>
     </row>
     <row r="38" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="41"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="42" t="s">
-        <v>22</v>
+      <c r="A38" s="40"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="41" t="s">
+        <v>23</v>
       </c>
       <c r="G38" s="17" t="n">
         <f aca="false">G37-G36</f>
-        <v>122.26</v>
+        <v>115.426666666667</v>
       </c>
       <c r="H38" s="12"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="45"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="45"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="45"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-    </row>
-    <row r="42" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="47"/>
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="45"/>
-    </row>
-    <row r="43" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="47"/>
-      <c r="B43" s="47"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="45"/>
-    </row>
-    <row r="44" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="47"/>
-      <c r="B44" s="47"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="45"/>
-    </row>
-    <row r="45" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="47"/>
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="45"/>
-    </row>
-    <row r="46" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="47"/>
-      <c r="B46" s="47"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="45"/>
-    </row>
-    <row r="47" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="47"/>
-      <c r="B47" s="47"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="45"/>
-    </row>
-    <row r="48" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="47"/>
-      <c r="B48" s="47"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="45"/>
-    </row>
-    <row r="49" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="47"/>
-      <c r="B49" s="47"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="45"/>
-    </row>
-    <row r="50" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="47"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="45"/>
-    </row>
-    <row r="51" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="47"/>
-      <c r="B51" s="47"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="45"/>
-    </row>
-    <row r="52" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="47"/>
-      <c r="B52" s="47"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="45"/>
-    </row>
-    <row r="53" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="47"/>
-      <c r="B53" s="47"/>
-      <c r="C53" s="47"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="45"/>
-    </row>
-    <row r="54" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="47"/>
-      <c r="B54" s="47"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="45"/>
-    </row>
-    <row r="55" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="47"/>
-      <c r="B55" s="47"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="45"/>
-    </row>
-    <row r="56" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="47"/>
-      <c r="B56" s="47"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="45"/>
-    </row>
-    <row r="57" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="47"/>
-      <c r="B57" s="47"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="45"/>
-    </row>
-    <row r="58" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="47"/>
-      <c r="B58" s="47"/>
-      <c r="C58" s="47"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="45"/>
-    </row>
-    <row r="59" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="47"/>
-      <c r="B59" s="47"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="45"/>
-    </row>
-    <row r="60" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="49"/>
-      <c r="B60" s="49"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="49"/>
-      <c r="F60" s="45"/>
-    </row>
-    <row r="61" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="49"/>
-      <c r="B61" s="49" t="n">
+      <c r="A41" s="44"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+    </row>
+    <row r="42" s="47" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="46"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="44"/>
+    </row>
+    <row r="43" s="47" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="46"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="44"/>
+    </row>
+    <row r="44" s="47" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="46"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="44"/>
+    </row>
+    <row r="45" s="47" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="46"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="44"/>
+    </row>
+    <row r="46" s="47" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="46"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="44"/>
+    </row>
+    <row r="47" s="47" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="46"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="44"/>
+    </row>
+    <row r="48" s="47" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="46"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="44"/>
+    </row>
+    <row r="49" s="47" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="46"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="44"/>
+    </row>
+    <row r="50" s="47" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="46"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="44"/>
+    </row>
+    <row r="51" s="47" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="46"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="44"/>
+    </row>
+    <row r="52" s="47" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="46"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="44"/>
+    </row>
+    <row r="53" s="47" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="46"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="44"/>
+    </row>
+    <row r="54" s="47" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="46"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="44"/>
+    </row>
+    <row r="55" s="47" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="46"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="44"/>
+    </row>
+    <row r="56" s="47" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="46"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="44"/>
+    </row>
+    <row r="57" s="47" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="46"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="44"/>
+    </row>
+    <row r="58" s="47" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="46"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="44"/>
+    </row>
+    <row r="59" s="47" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="46"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="44"/>
+    </row>
+    <row r="60" s="47" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="48"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="44"/>
+    </row>
+    <row r="61" s="47" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="48"/>
+      <c r="B61" s="48" t="n">
         <v>0.625</v>
       </c>
-      <c r="C61" s="49"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="45"/>
-    </row>
-    <row r="62" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="49"/>
-      <c r="B62" s="49" t="n">
+      <c r="C61" s="48"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="44"/>
+    </row>
+    <row r="62" s="47" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="48"/>
+      <c r="B62" s="48" t="n">
         <v>0.628472222222222</v>
       </c>
-      <c r="C62" s="49"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="45"/>
-    </row>
-    <row r="63" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="49"/>
-      <c r="B63" s="49" t="n">
+      <c r="C62" s="48"/>
+      <c r="D62" s="48"/>
+      <c r="E62" s="48"/>
+      <c r="F62" s="44"/>
+    </row>
+    <row r="63" s="47" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="48"/>
+      <c r="B63" s="48" t="n">
         <v>0.631944444444444</v>
       </c>
-      <c r="C63" s="49"/>
-      <c r="D63" s="49"/>
-      <c r="E63" s="49"/>
-      <c r="F63" s="45"/>
-    </row>
-    <row r="64" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="49"/>
-      <c r="B64" s="49" t="n">
+      <c r="C63" s="48"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="44"/>
+    </row>
+    <row r="64" s="47" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="48"/>
+      <c r="B64" s="48" t="n">
         <v>0.635416666666667</v>
       </c>
-      <c r="C64" s="49"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="49"/>
-      <c r="F64" s="45"/>
-    </row>
-    <row r="65" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="49"/>
-      <c r="B65" s="49" t="n">
+      <c r="C64" s="48"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="48"/>
+      <c r="F64" s="44"/>
+    </row>
+    <row r="65" s="47" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="48"/>
+      <c r="B65" s="48" t="n">
         <v>0.638888888888889</v>
       </c>
-      <c r="C65" s="49"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="45"/>
-    </row>
-    <row r="66" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="49"/>
-      <c r="B66" s="49" t="n">
+      <c r="C65" s="48"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="48"/>
+      <c r="F65" s="44"/>
+    </row>
+    <row r="66" s="47" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="48"/>
+      <c r="B66" s="48" t="n">
         <v>0.642361111111111</v>
       </c>
-      <c r="C66" s="49"/>
-      <c r="D66" s="49"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="45"/>
-    </row>
-    <row r="67" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="50"/>
-      <c r="B67" s="49" t="n">
+      <c r="C66" s="48"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="44"/>
+    </row>
+    <row r="67" s="47" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="49"/>
+      <c r="B67" s="48" t="n">
         <v>0.645833333333333</v>
       </c>
-      <c r="C67" s="50"/>
-      <c r="D67" s="50"/>
-      <c r="E67" s="49"/>
-      <c r="F67" s="45"/>
-    </row>
-    <row r="68" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="49" t="n">
+      <c r="C67" s="49"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="48"/>
+      <c r="F67" s="44"/>
+    </row>
+    <row r="68" s="47" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="48" t="n">
         <v>0.291666666666667</v>
       </c>
-      <c r="B68" s="51" t="n">
+      <c r="B68" s="50" t="n">
         <v>0.649305555555556</v>
       </c>
-      <c r="C68" s="49" t="n">
+      <c r="C68" s="48" t="n">
         <v>0.479166666666667</v>
       </c>
-      <c r="D68" s="49" t="n">
+      <c r="D68" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="E68" s="49" t="n">
+      <c r="E68" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="F68" s="45"/>
-    </row>
-    <row r="69" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="49" t="n">
+      <c r="F68" s="44"/>
+    </row>
+    <row r="69" s="47" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="48" t="n">
         <v>0.295138888888889</v>
       </c>
-      <c r="B69" s="51" t="n">
+      <c r="B69" s="50" t="n">
         <v>0.652777777777778</v>
       </c>
-      <c r="C69" s="49" t="n">
+      <c r="C69" s="48" t="n">
         <v>0.482638888888889</v>
       </c>
-      <c r="D69" s="49" t="n">
+      <c r="D69" s="48" t="n">
         <v>0.503472222222222</v>
       </c>
-      <c r="E69" s="49" t="n">
+      <c r="E69" s="48" t="n">
         <v>0.503472222222222</v>
       </c>
-      <c r="F69" s="45"/>
-    </row>
-    <row r="70" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="49" t="n">
+      <c r="F69" s="44"/>
+    </row>
+    <row r="70" s="47" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="48" t="n">
         <v>0.298611111111111</v>
       </c>
-      <c r="B70" s="52" t="n">
+      <c r="B70" s="51" t="n">
         <v>0.65625</v>
       </c>
-      <c r="C70" s="49" t="n">
+      <c r="C70" s="48" t="n">
         <v>0.486111111111111</v>
       </c>
-      <c r="D70" s="49" t="n">
+      <c r="D70" s="48" t="n">
         <v>0.506944444444444</v>
       </c>
-      <c r="E70" s="49" t="n">
+      <c r="E70" s="48" t="n">
         <v>0.506944444444444</v>
       </c>
-      <c r="F70" s="45"/>
-    </row>
-    <row r="71" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="49" t="n">
+      <c r="F70" s="44"/>
+    </row>
+    <row r="71" s="47" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="48" t="n">
         <v>0.302083333333333</v>
       </c>
-      <c r="B71" s="52" t="n">
+      <c r="B71" s="51" t="n">
         <v>0.659722222222222</v>
       </c>
-      <c r="C71" s="49" t="n">
+      <c r="C71" s="48" t="n">
         <v>0.489583333333333</v>
       </c>
-      <c r="D71" s="49" t="n">
+      <c r="D71" s="48" t="n">
         <v>0.510416666666667</v>
       </c>
-      <c r="E71" s="49" t="n">
+      <c r="E71" s="48" t="n">
         <v>0.510416666666667</v>
       </c>
-      <c r="F71" s="45"/>
-    </row>
-    <row r="72" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="49" t="n">
+      <c r="F71" s="44"/>
+    </row>
+    <row r="72" s="47" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="48" t="n">
         <v>0.305555555555556</v>
       </c>
-      <c r="B72" s="52" t="n">
+      <c r="B72" s="51" t="n">
         <v>0.663194444444444</v>
       </c>
-      <c r="C72" s="49" t="n">
+      <c r="C72" s="48" t="n">
         <v>0.493055555555555</v>
       </c>
-      <c r="D72" s="49" t="n">
+      <c r="D72" s="48" t="n">
         <v>0.513888888888889</v>
       </c>
-      <c r="E72" s="49" t="n">
+      <c r="E72" s="48" t="n">
         <v>0.513888888888889</v>
       </c>
-      <c r="F72" s="45"/>
-    </row>
-    <row r="73" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="49" t="n">
+      <c r="F72" s="44"/>
+    </row>
+    <row r="73" s="47" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="48" t="n">
         <v>0.309027777777778</v>
       </c>
-      <c r="B73" s="49" t="n">
+      <c r="B73" s="48" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="C73" s="49" t="n">
+      <c r="C73" s="48" t="n">
         <v>0.496527777777778</v>
       </c>
-      <c r="D73" s="49" t="n">
+      <c r="D73" s="48" t="n">
         <v>0.517361111111111</v>
       </c>
-      <c r="E73" s="49" t="n">
+      <c r="E73" s="48" t="n">
         <v>0.517361111111111</v>
       </c>
-      <c r="F73" s="45"/>
-    </row>
-    <row r="74" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="49" t="n">
+      <c r="F73" s="44"/>
+    </row>
+    <row r="74" s="47" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="48" t="n">
         <v>0.3125</v>
       </c>
-      <c r="B74" s="49" t="n">
+      <c r="B74" s="48" t="n">
         <v>0.670138888888889</v>
       </c>
-      <c r="C74" s="49" t="n">
+      <c r="C74" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="D74" s="49" t="n">
+      <c r="D74" s="48" t="n">
         <v>0.520833333333333</v>
       </c>
-      <c r="E74" s="49" t="n">
+      <c r="E74" s="48" t="n">
         <v>0.520833333333333</v>
       </c>
-      <c r="F74" s="45"/>
-    </row>
-    <row r="75" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="49" t="n">
+      <c r="F74" s="44"/>
+    </row>
+    <row r="75" s="47" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="48" t="n">
         <v>0.315972222222222</v>
       </c>
-      <c r="B75" s="49" t="n">
+      <c r="B75" s="48" t="n">
         <v>0.673611111111111</v>
       </c>
-      <c r="C75" s="49" t="n">
+      <c r="C75" s="48" t="n">
         <v>0.503472222222222</v>
       </c>
-      <c r="D75" s="49" t="n">
+      <c r="D75" s="48" t="n">
         <v>0.524305555555555</v>
       </c>
-      <c r="E75" s="49" t="n">
+      <c r="E75" s="48" t="n">
         <v>0.524305555555555</v>
       </c>
-      <c r="F75" s="45"/>
-    </row>
-    <row r="76" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="49" t="n">
+      <c r="F75" s="44"/>
+    </row>
+    <row r="76" s="47" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="48" t="n">
         <v>0.319444444444444</v>
       </c>
-      <c r="B76" s="49" t="n">
+      <c r="B76" s="48" t="n">
         <v>0.677083333333333</v>
       </c>
-      <c r="C76" s="49" t="n">
+      <c r="C76" s="48" t="n">
         <v>0.506944444444444</v>
       </c>
-      <c r="D76" s="49" t="n">
+      <c r="D76" s="48" t="n">
         <v>0.527777777777778</v>
       </c>
-      <c r="E76" s="49" t="n">
+      <c r="E76" s="48" t="n">
         <v>0.527777777777778</v>
       </c>
-      <c r="F76" s="45"/>
-    </row>
-    <row r="77" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="49" t="n">
+      <c r="F76" s="44"/>
+    </row>
+    <row r="77" s="47" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="48" t="n">
         <v>0.322916666666667</v>
       </c>
-      <c r="B77" s="49" t="n">
+      <c r="B77" s="48" t="n">
         <v>0.680555555555555</v>
       </c>
-      <c r="C77" s="49" t="n">
+      <c r="C77" s="48" t="n">
         <v>0.510416666666667</v>
       </c>
-      <c r="D77" s="49" t="n">
+      <c r="D77" s="48" t="n">
         <v>0.53125</v>
       </c>
-      <c r="E77" s="49" t="n">
+      <c r="E77" s="48" t="n">
         <v>0.53125</v>
       </c>
-      <c r="F77" s="45"/>
-    </row>
-    <row r="78" s="48" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="49" t="n">
+      <c r="F77" s="44"/>
+    </row>
+    <row r="78" s="47" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="48" t="n">
         <v>0.326388888888889</v>
       </c>
-      <c r="B78" s="49" t="n">
+      <c r="B78" s="48" t="n">
         <v>0.684027777777778</v>
       </c>
-      <c r="C78" s="49" t="n">
+      <c r="C78" s="48" t="n">
         <v>0.513888888888889</v>
       </c>
-      <c r="D78" s="49" t="n">
+      <c r="D78" s="48" t="n">
         <v>0.534722222222222</v>
       </c>
-      <c r="E78" s="49" t="n">
+      <c r="E78" s="48" t="n">
         <v>0.534722222222222</v>
       </c>
-      <c r="F78" s="45"/>
+      <c r="F78" s="44"/>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="49" t="n">
+      <c r="A79" s="48" t="n">
         <v>0.329861111111111</v>
       </c>
-      <c r="B79" s="49" t="n">
+      <c r="B79" s="48" t="n">
         <v>0.6875</v>
       </c>
-      <c r="C79" s="49" t="n">
+      <c r="C79" s="48" t="n">
         <v>0.517361111111111</v>
       </c>
-      <c r="D79" s="49" t="n">
+      <c r="D79" s="48" t="n">
         <v>0.538194444444444</v>
       </c>
-      <c r="E79" s="49" t="n">
+      <c r="E79" s="48" t="n">
         <v>0.538194444444444</v>
       </c>
-      <c r="F79" s="45"/>
+      <c r="F79" s="44"/>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="49" t="n">
+      <c r="A80" s="48" t="n">
         <v>0.333333333333333</v>
       </c>
-      <c r="B80" s="49" t="n">
+      <c r="B80" s="48" t="n">
         <v>0.690972222222222</v>
       </c>
-      <c r="C80" s="49" t="n">
+      <c r="C80" s="48" t="n">
         <v>0.520833333333333</v>
       </c>
-      <c r="D80" s="49" t="n">
+      <c r="D80" s="48" t="n">
         <v>0.541666666666667</v>
       </c>
-      <c r="E80" s="49" t="n">
+      <c r="E80" s="48" t="n">
         <v>0.541666666666667</v>
       </c>
-      <c r="F80" s="45"/>
+      <c r="F80" s="44"/>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="49" t="n">
+      <c r="A81" s="48" t="n">
         <v>0.336805555555555</v>
       </c>
-      <c r="B81" s="49" t="n">
+      <c r="B81" s="48" t="n">
         <v>0.694444444444444</v>
       </c>
-      <c r="C81" s="49" t="n">
+      <c r="C81" s="48" t="n">
         <v>0.524305555555555</v>
       </c>
-      <c r="D81" s="49" t="n">
+      <c r="D81" s="48" t="n">
         <v>0.545138888888889</v>
       </c>
-      <c r="E81" s="49" t="n">
+      <c r="E81" s="48" t="n">
         <v>0.545138888888889</v>
       </c>
-      <c r="F81" s="45"/>
+      <c r="F81" s="44"/>
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="49" t="n">
+      <c r="A82" s="48" t="n">
         <v>0.340277777777778</v>
       </c>
-      <c r="B82" s="49" t="n">
+      <c r="B82" s="48" t="n">
         <v>0.697916666666667</v>
       </c>
-      <c r="C82" s="49" t="n">
+      <c r="C82" s="48" t="n">
         <v>0.527777777777778</v>
       </c>
-      <c r="D82" s="49" t="n">
+      <c r="D82" s="48" t="n">
         <v>0.548611111111111</v>
       </c>
-      <c r="E82" s="49" t="n">
+      <c r="E82" s="48" t="n">
         <v>0.548611111111111</v>
       </c>
-      <c r="F82" s="45"/>
+      <c r="F82" s="44"/>
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="49" t="n">
+      <c r="A83" s="48" t="n">
         <v>0.34375</v>
       </c>
-      <c r="B83" s="49" t="n">
+      <c r="B83" s="48" t="n">
         <v>0.701388888888889</v>
       </c>
-      <c r="C83" s="49" t="n">
+      <c r="C83" s="48" t="n">
         <v>0.53125</v>
       </c>
-      <c r="D83" s="49" t="n">
+      <c r="D83" s="48" t="n">
         <v>0.552083333333333</v>
       </c>
-      <c r="E83" s="49" t="n">
+      <c r="E83" s="48" t="n">
         <v>0.552083333333333</v>
       </c>
-      <c r="F83" s="45"/>
+      <c r="F83" s="44"/>
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="49" t="n">
+      <c r="A84" s="48" t="n">
         <v>0.347222222222222</v>
       </c>
-      <c r="B84" s="49" t="n">
+      <c r="B84" s="48" t="n">
         <v>0.704861111111111</v>
       </c>
-      <c r="C84" s="49" t="n">
+      <c r="C84" s="48" t="n">
         <v>0.534722222222222</v>
       </c>
-      <c r="D84" s="49" t="n">
+      <c r="D84" s="48" t="n">
         <v>0.555555555555555</v>
       </c>
-      <c r="E84" s="49" t="n">
+      <c r="E84" s="48" t="n">
         <v>0.555555555555555</v>
       </c>
-      <c r="F84" s="45"/>
+      <c r="F84" s="44"/>
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="49" t="n">
+      <c r="A85" s="48" t="n">
         <v>0.350694444444444</v>
       </c>
-      <c r="B85" s="49" t="n">
+      <c r="B85" s="48" t="n">
         <v>0.708333333333333</v>
       </c>
-      <c r="C85" s="49" t="n">
+      <c r="C85" s="48" t="n">
         <v>0.538194444444444</v>
       </c>
-      <c r="D85" s="49" t="n">
+      <c r="D85" s="48" t="n">
         <v>0.559027777777778</v>
       </c>
-      <c r="E85" s="49" t="n">
+      <c r="E85" s="48" t="n">
         <v>0.559027777777778</v>
       </c>
-      <c r="F85" s="45"/>
+      <c r="F85" s="44"/>
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="49" t="n">
+      <c r="A86" s="48" t="n">
         <v>0.354166666666666</v>
       </c>
-      <c r="B86" s="49" t="n">
+      <c r="B86" s="48" t="n">
         <v>0.711805555555555</v>
       </c>
-      <c r="C86" s="49" t="n">
+      <c r="C86" s="48" t="n">
         <v>0.541666666666667</v>
       </c>
-      <c r="D86" s="49" t="n">
+      <c r="D86" s="48" t="n">
         <v>0.5625</v>
       </c>
-      <c r="E86" s="49" t="n">
+      <c r="E86" s="48" t="n">
         <v>0.5625</v>
       </c>
-      <c r="F86" s="45"/>
+      <c r="F86" s="44"/>
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="49" t="n">
+      <c r="A87" s="48" t="n">
         <v>0.357638888888889</v>
       </c>
-      <c r="B87" s="49" t="n">
+      <c r="B87" s="48" t="n">
         <v>0.715277777777778</v>
       </c>
-      <c r="C87" s="49" t="n">
+      <c r="C87" s="48" t="n">
         <v>0.545138888888889</v>
       </c>
-      <c r="D87" s="49" t="n">
+      <c r="D87" s="48" t="n">
         <v>0.565972222222222</v>
       </c>
-      <c r="E87" s="49" t="n">
+      <c r="E87" s="48" t="n">
         <v>0.565972222222222</v>
       </c>
-      <c r="F87" s="45"/>
+      <c r="F87" s="44"/>
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="49" t="n">
+      <c r="A88" s="48" t="n">
         <v>0.361111111111111</v>
       </c>
-      <c r="B88" s="49" t="n">
+      <c r="B88" s="48" t="n">
         <v>0.71875</v>
       </c>
-      <c r="C88" s="49" t="n">
+      <c r="C88" s="48" t="n">
         <v>0.548611111111111</v>
       </c>
-      <c r="D88" s="49" t="n">
+      <c r="D88" s="48" t="n">
         <v>0.569444444444444</v>
       </c>
-      <c r="E88" s="49" t="n">
+      <c r="E88" s="48" t="n">
         <v>0.569444444444444</v>
       </c>
-      <c r="F88" s="45"/>
+      <c r="F88" s="44"/>
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="49" t="n">
+      <c r="A89" s="48" t="n">
         <v>0.364583333333333</v>
       </c>
-      <c r="B89" s="49" t="n">
+      <c r="B89" s="48" t="n">
         <v>0.722222222222222</v>
       </c>
-      <c r="C89" s="49" t="n">
+      <c r="C89" s="48" t="n">
         <v>0.552083333333333</v>
       </c>
-      <c r="D89" s="49" t="n">
+      <c r="D89" s="48" t="n">
         <v>0.572916666666666</v>
       </c>
-      <c r="E89" s="49" t="n">
+      <c r="E89" s="48" t="n">
         <v>0.572916666666666</v>
       </c>
-      <c r="F89" s="45"/>
+      <c r="F89" s="44"/>
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="49" t="n">
+      <c r="A90" s="48" t="n">
         <v>0.368055555555556</v>
       </c>
-      <c r="B90" s="49" t="n">
+      <c r="B90" s="48" t="n">
         <v>0.725694444444444</v>
       </c>
-      <c r="C90" s="49" t="n">
+      <c r="C90" s="48" t="n">
         <v>0.555555555555555</v>
       </c>
-      <c r="D90" s="49" t="n">
+      <c r="D90" s="48" t="n">
         <v>0.576388888888889</v>
       </c>
-      <c r="E90" s="49" t="n">
+      <c r="E90" s="48" t="n">
         <v>0.576388888888889</v>
       </c>
-      <c r="F90" s="45"/>
+      <c r="F90" s="44"/>
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="49" t="n">
+      <c r="A91" s="48" t="n">
         <v>0.371527777777778</v>
       </c>
-      <c r="B91" s="49" t="n">
+      <c r="B91" s="48" t="n">
         <v>0.729166666666666</v>
       </c>
-      <c r="C91" s="49" t="n">
+      <c r="C91" s="48" t="n">
         <v>0.559027777777777</v>
       </c>
-      <c r="D91" s="49" t="n">
+      <c r="D91" s="48" t="n">
         <v>0.579861111111111</v>
       </c>
-      <c r="E91" s="49" t="n">
+      <c r="E91" s="48" t="n">
         <v>0.579861111111111</v>
       </c>
-      <c r="F91" s="45"/>
+      <c r="F91" s="44"/>
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="49" t="n">
+      <c r="A92" s="48" t="n">
         <v>0.375</v>
       </c>
-      <c r="B92" s="49" t="n">
+      <c r="B92" s="48" t="n">
         <v>0.732638888888889</v>
       </c>
-      <c r="C92" s="49" t="n">
+      <c r="C92" s="48" t="n">
         <v>0.5625</v>
       </c>
-      <c r="D92" s="49" t="n">
+      <c r="D92" s="48" t="n">
         <v>0.583333333333333</v>
       </c>
-      <c r="E92" s="49" t="n">
+      <c r="E92" s="48" t="n">
         <v>0.583333333333333</v>
       </c>
-      <c r="F92" s="45"/>
+      <c r="F92" s="44"/>
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="48"/>
-      <c r="B93" s="49" t="n">
+      <c r="A93" s="47"/>
+      <c r="B93" s="48" t="n">
         <v>0.736111111111111</v>
       </c>
-      <c r="C93" s="48"/>
-      <c r="D93" s="48"/>
-      <c r="E93" s="49" t="n">
+      <c r="C93" s="47"/>
+      <c r="D93" s="47"/>
+      <c r="E93" s="48" t="n">
         <v>0.586805555555555</v>
       </c>
-      <c r="F93" s="45"/>
+      <c r="F93" s="44"/>
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="48"/>
-      <c r="B94" s="49" t="n">
+      <c r="A94" s="47"/>
+      <c r="B94" s="48" t="n">
         <v>0.739583333333333</v>
       </c>
-      <c r="C94" s="48"/>
-      <c r="D94" s="48"/>
-      <c r="E94" s="49" t="n">
+      <c r="C94" s="47"/>
+      <c r="D94" s="47"/>
+      <c r="E94" s="48" t="n">
         <v>0.590277777777777</v>
       </c>
-      <c r="F94" s="45"/>
+      <c r="F94" s="44"/>
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="48"/>
-      <c r="B95" s="49" t="n">
+      <c r="A95" s="47"/>
+      <c r="B95" s="48" t="n">
         <v>0.743055555555555</v>
       </c>
-      <c r="C95" s="48"/>
-      <c r="D95" s="48"/>
-      <c r="E95" s="49" t="n">
+      <c r="C95" s="47"/>
+      <c r="D95" s="47"/>
+      <c r="E95" s="48" t="n">
         <v>0.59375</v>
       </c>
-      <c r="F95" s="45"/>
+      <c r="F95" s="44"/>
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="48"/>
-      <c r="B96" s="49" t="n">
+      <c r="A96" s="47"/>
+      <c r="B96" s="48" t="n">
         <v>0.746527777777777</v>
       </c>
-      <c r="C96" s="48"/>
-      <c r="D96" s="48"/>
-      <c r="E96" s="49" t="n">
+      <c r="C96" s="47"/>
+      <c r="D96" s="47"/>
+      <c r="E96" s="48" t="n">
         <v>0.597222222222222</v>
       </c>
-      <c r="F96" s="45"/>
+      <c r="F96" s="44"/>
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="48"/>
-      <c r="B97" s="49" t="n">
+      <c r="A97" s="47"/>
+      <c r="B97" s="48" t="n">
         <v>0.75</v>
       </c>
-      <c r="C97" s="48"/>
-      <c r="D97" s="48"/>
-      <c r="E97" s="52" t="n">
+      <c r="C97" s="47"/>
+      <c r="D97" s="47"/>
+      <c r="E97" s="51" t="n">
         <v>0.600694444444444</v>
       </c>
-      <c r="F97" s="45"/>
+      <c r="F97" s="44"/>
     </row>
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="48"/>
-      <c r="B98" s="48"/>
-      <c r="C98" s="48"/>
-      <c r="D98" s="48"/>
-      <c r="E98" s="52" t="n">
+      <c r="A98" s="47"/>
+      <c r="B98" s="47"/>
+      <c r="C98" s="47"/>
+      <c r="D98" s="47"/>
+      <c r="E98" s="51" t="n">
         <v>0.604166666666667</v>
       </c>
-      <c r="F98" s="45"/>
+      <c r="F98" s="44"/>
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="48"/>
-      <c r="B99" s="48"/>
-      <c r="C99" s="48"/>
-      <c r="D99" s="48"/>
-      <c r="E99" s="52" t="n">
+      <c r="A99" s="47"/>
+      <c r="B99" s="47"/>
+      <c r="C99" s="47"/>
+      <c r="D99" s="47"/>
+      <c r="E99" s="51" t="n">
         <v>0.607638888888889</v>
       </c>
-      <c r="F99" s="45"/>
+      <c r="F99" s="44"/>
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="48"/>
-      <c r="B100" s="48"/>
-      <c r="C100" s="48"/>
-      <c r="D100" s="48"/>
-      <c r="E100" s="52" t="n">
+      <c r="A100" s="47"/>
+      <c r="B100" s="47"/>
+      <c r="C100" s="47"/>
+      <c r="D100" s="47"/>
+      <c r="E100" s="51" t="n">
         <v>0.611111111111111</v>
       </c>
-      <c r="F100" s="45"/>
+      <c r="F100" s="44"/>
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="48"/>
-      <c r="B101" s="48"/>
-      <c r="C101" s="48"/>
-      <c r="D101" s="48"/>
-      <c r="E101" s="52" t="n">
+      <c r="A101" s="47"/>
+      <c r="B101" s="47"/>
+      <c r="C101" s="47"/>
+      <c r="D101" s="47"/>
+      <c r="E101" s="51" t="n">
         <v>0.614583333333333</v>
       </c>
-      <c r="F101" s="45"/>
+      <c r="F101" s="44"/>
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="48"/>
-      <c r="B102" s="48"/>
-      <c r="C102" s="48"/>
-      <c r="D102" s="48"/>
-      <c r="E102" s="52" t="n">
+      <c r="A102" s="47"/>
+      <c r="B102" s="47"/>
+      <c r="C102" s="47"/>
+      <c r="D102" s="47"/>
+      <c r="E102" s="51" t="n">
         <v>0.618055555555556</v>
       </c>
-      <c r="F102" s="45"/>
+      <c r="F102" s="44"/>
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="48"/>
-      <c r="B103" s="48"/>
-      <c r="C103" s="48"/>
-      <c r="D103" s="48"/>
-      <c r="E103" s="52" t="n">
+      <c r="A103" s="47"/>
+      <c r="B103" s="47"/>
+      <c r="C103" s="47"/>
+      <c r="D103" s="47"/>
+      <c r="E103" s="51" t="n">
         <v>0.621527777777778</v>
       </c>
-      <c r="F103" s="45"/>
+      <c r="F103" s="44"/>
     </row>
     <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="48"/>
-      <c r="B104" s="48"/>
-      <c r="C104" s="48"/>
-      <c r="D104" s="48"/>
-      <c r="E104" s="52" t="n">
+      <c r="A104" s="47"/>
+      <c r="B104" s="47"/>
+      <c r="C104" s="47"/>
+      <c r="D104" s="47"/>
+      <c r="E104" s="51" t="n">
         <v>0.625</v>
       </c>
-      <c r="F104" s="45"/>
+      <c r="F104" s="44"/>
     </row>
     <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="48"/>
-      <c r="B105" s="48"/>
-      <c r="C105" s="48"/>
-      <c r="D105" s="48"/>
-      <c r="E105" s="52" t="n">
+      <c r="A105" s="47"/>
+      <c r="B105" s="47"/>
+      <c r="C105" s="47"/>
+      <c r="D105" s="47"/>
+      <c r="E105" s="51" t="n">
         <v>0.628472222222222</v>
       </c>
-      <c r="F105" s="45"/>
+      <c r="F105" s="44"/>
     </row>
     <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="48"/>
-      <c r="B106" s="48"/>
-      <c r="C106" s="48"/>
-      <c r="D106" s="48"/>
-      <c r="E106" s="52" t="n">
+      <c r="A106" s="47"/>
+      <c r="B106" s="47"/>
+      <c r="C106" s="47"/>
+      <c r="D106" s="47"/>
+      <c r="E106" s="51" t="n">
         <v>0.631944444444444</v>
       </c>
-      <c r="F106" s="45"/>
+      <c r="F106" s="44"/>
     </row>
     <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="48"/>
-      <c r="B107" s="48"/>
-      <c r="C107" s="48"/>
-      <c r="D107" s="48"/>
-      <c r="E107" s="52" t="n">
+      <c r="A107" s="47"/>
+      <c r="B107" s="47"/>
+      <c r="C107" s="47"/>
+      <c r="D107" s="47"/>
+      <c r="E107" s="51" t="n">
         <v>0.635416666666667</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="48"/>
-      <c r="B108" s="48"/>
-      <c r="C108" s="48"/>
-      <c r="D108" s="48"/>
-      <c r="E108" s="52" t="n">
+      <c r="A108" s="47"/>
+      <c r="B108" s="47"/>
+      <c r="C108" s="47"/>
+      <c r="D108" s="47"/>
+      <c r="E108" s="51" t="n">
         <v>0.638888888888889</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="48"/>
-      <c r="B109" s="48"/>
-      <c r="C109" s="48"/>
-      <c r="D109" s="48"/>
-      <c r="E109" s="52" t="n">
+      <c r="A109" s="47"/>
+      <c r="B109" s="47"/>
+      <c r="C109" s="47"/>
+      <c r="D109" s="47"/>
+      <c r="E109" s="51" t="n">
         <v>0.642361111111111</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="48"/>
-      <c r="B110" s="48"/>
-      <c r="C110" s="48"/>
-      <c r="D110" s="48"/>
-      <c r="E110" s="52" t="n">
+      <c r="A110" s="47"/>
+      <c r="B110" s="47"/>
+      <c r="C110" s="47"/>
+      <c r="D110" s="47"/>
+      <c r="E110" s="51" t="n">
         <v>0.645833333333333</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="48"/>
-      <c r="B111" s="48"/>
-      <c r="C111" s="48"/>
-      <c r="D111" s="48"/>
-      <c r="E111" s="52" t="n">
+      <c r="A111" s="47"/>
+      <c r="B111" s="47"/>
+      <c r="C111" s="47"/>
+      <c r="D111" s="47"/>
+      <c r="E111" s="51" t="n">
         <v>0.649305555555556</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="48"/>
-      <c r="B112" s="48"/>
-      <c r="C112" s="48"/>
-      <c r="D112" s="48"/>
-      <c r="E112" s="52" t="n">
+      <c r="A112" s="47"/>
+      <c r="B112" s="47"/>
+      <c r="C112" s="47"/>
+      <c r="D112" s="47"/>
+      <c r="E112" s="51" t="n">
         <v>0.652777777777778</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="48"/>
-      <c r="B113" s="48"/>
-      <c r="C113" s="48"/>
-      <c r="D113" s="48"/>
-      <c r="E113" s="52" t="n">
+      <c r="A113" s="47"/>
+      <c r="B113" s="47"/>
+      <c r="C113" s="47"/>
+      <c r="D113" s="47"/>
+      <c r="E113" s="51" t="n">
         <v>0.65625</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="48"/>
-      <c r="B114" s="48"/>
-      <c r="C114" s="48"/>
-      <c r="D114" s="48"/>
-      <c r="E114" s="52" t="n">
+      <c r="A114" s="47"/>
+      <c r="B114" s="47"/>
+      <c r="C114" s="47"/>
+      <c r="D114" s="47"/>
+      <c r="E114" s="51" t="n">
         <v>0.659722222222222</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="48"/>
-      <c r="B115" s="48"/>
-      <c r="C115" s="48"/>
-      <c r="D115" s="48"/>
-      <c r="E115" s="52" t="n">
+      <c r="A115" s="47"/>
+      <c r="B115" s="47"/>
+      <c r="C115" s="47"/>
+      <c r="D115" s="47"/>
+      <c r="E115" s="51" t="n">
         <v>0.663194444444444</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="48"/>
-      <c r="B116" s="48"/>
-      <c r="C116" s="48"/>
-      <c r="D116" s="48"/>
-      <c r="E116" s="52" t="n">
+      <c r="A116" s="47"/>
+      <c r="B116" s="47"/>
+      <c r="C116" s="47"/>
+      <c r="D116" s="47"/>
+      <c r="E116" s="51" t="n">
         <v>0.666666666666667</v>
       </c>
     </row>

--- a/#Stundenaufzeichnung_Vorlage_2023_erweiterte_Zeiten.xlsx
+++ b/#Stundenaufzeichnung_Vorlage_2023_erweiterte_Zeiten.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t xml:space="preserve">Stundenaufzeichung</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t xml:space="preserve">Filament zur gänze getestet. Kleine Applikationen gebaut. Dashboards ausgetestet. Charts implementiert….</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bis 10 Filament angeshene. Projekt besprochen. Features implementiert. Seite verbessert usw</t>
   </si>
   <si>
     <t xml:space="preserve">Summe WO1</t>
@@ -687,9 +690,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>7252200</xdr:colOff>
+      <xdr:colOff>7251840</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:rowOff>720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -703,7 +706,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10081800" y="444600"/>
-          <a:ext cx="2730960" cy="1642320"/>
+          <a:ext cx="2730600" cy="1641960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -726,7 +729,7 @@
   <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
+      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -910,7 +913,7 @@
         <v>0.322916666666667</v>
       </c>
       <c r="C13" s="22" t="n">
-        <v>0.670138888888889</v>
+        <v>0.677083333333333</v>
       </c>
       <c r="D13" s="22" t="n">
         <v>0.513888888888889</v>
@@ -923,19 +926,29 @@
       </c>
       <c r="G13" s="26" t="n">
         <f aca="false">(C13-B13)*24-(E13-D13)*24</f>
-        <v>7.83333333333333</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="27"/>
+      <c r="B14" s="22" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="C14" s="22" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="D14" s="22" t="n">
+        <v>0.513888888888889</v>
+      </c>
+      <c r="E14" s="22" t="n">
+        <v>0.534722222222222</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>18</v>
+      </c>
       <c r="G14" s="26" t="n">
         <f aca="false">(C14-B14)*24-(E14-D14)*24</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -952,7 +965,7 @@
     </row>
     <row r="16" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
@@ -961,7 +974,7 @@
       <c r="F16" s="30"/>
       <c r="G16" s="31" t="n">
         <f aca="false">G11+G12+G13+G14+G15</f>
-        <v>23.3333333333333</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="17" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1026,7 +1039,7 @@
     </row>
     <row r="22" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
@@ -1100,7 +1113,7 @@
     </row>
     <row r="28" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
@@ -1174,7 +1187,7 @@
     </row>
     <row r="34" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B34" s="35"/>
       <c r="C34" s="36"/>
@@ -1203,11 +1216,11 @@
       <c r="D36" s="40"/>
       <c r="E36" s="40"/>
       <c r="F36" s="41" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G36" s="14" t="n">
         <f aca="false">G16+G22+G28+G34</f>
-        <v>23.3333333333333</v>
+        <v>31.5</v>
       </c>
       <c r="H36" s="42"/>
     </row>
@@ -1232,11 +1245,11 @@
       <c r="D38" s="40"/>
       <c r="E38" s="40"/>
       <c r="F38" s="41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G38" s="17" t="n">
         <f aca="false">G37-G36</f>
-        <v>115.426666666667</v>
+        <v>107.26</v>
       </c>
       <c r="H38" s="12"/>
     </row>

--- a/#Stundenaufzeichnung_Vorlage_2023_erweiterte_Zeiten.xlsx
+++ b/#Stundenaufzeichnung_Vorlage_2023_erweiterte_Zeiten.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t xml:space="preserve">Stundenaufzeichung</t>
   </si>
@@ -76,7 +76,10 @@
     <t xml:space="preserve">Filament zur gänze getestet. Kleine Applikationen gebaut. Dashboards ausgetestet. Charts implementiert….</t>
   </si>
   <si>
-    <t xml:space="preserve">Bis 10 Filament angeshene. Projekt besprochen. Features implementiert. Seite verbessert usw</t>
+    <t xml:space="preserve">Bis 10 Filament angeshene. Projekt besprochen. Code angesehen Features implementiert. Seite verbessert siehe docs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lauter Filter eingefügt. ERD verbessert→ in PLANTUML gezeichnet. Languages verändert.</t>
   </si>
   <si>
     <t xml:space="preserve">Summe WO1</t>
@@ -690,9 +693,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>7251840</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:colOff>7251480</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>200160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -706,7 +709,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10081800" y="444600"/>
-          <a:ext cx="2730600" cy="1641960"/>
+          <a:ext cx="2730240" cy="1641600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -729,7 +732,7 @@
   <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -953,19 +956,29 @@
     </row>
     <row r="15" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="27"/>
+      <c r="B15" s="22" t="n">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="C15" s="22" t="n">
+        <v>0.604166666666667</v>
+      </c>
+      <c r="D15" s="22" t="n">
+        <v>0.513888888888889</v>
+      </c>
+      <c r="E15" s="22" t="n">
+        <v>0.534722222222222</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>19</v>
+      </c>
       <c r="G15" s="26" t="n">
         <f aca="false">(C15-B15)*24-(E15-D15)*24</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
@@ -974,7 +987,7 @@
       <c r="F16" s="30"/>
       <c r="G16" s="31" t="n">
         <f aca="false">G11+G12+G13+G14+G15</f>
-        <v>31.5</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="17" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1039,7 +1052,7 @@
     </row>
     <row r="22" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
@@ -1113,7 +1126,7 @@
     </row>
     <row r="28" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
@@ -1187,7 +1200,7 @@
     </row>
     <row r="34" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B34" s="35"/>
       <c r="C34" s="36"/>
@@ -1216,11 +1229,11 @@
       <c r="D36" s="40"/>
       <c r="E36" s="40"/>
       <c r="F36" s="41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G36" s="14" t="n">
         <f aca="false">G16+G22+G28+G34</f>
-        <v>31.5</v>
+        <v>38.5</v>
       </c>
       <c r="H36" s="42"/>
     </row>
@@ -1245,11 +1258,11 @@
       <c r="D38" s="40"/>
       <c r="E38" s="40"/>
       <c r="F38" s="41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G38" s="17" t="n">
         <f aca="false">G37-G36</f>
-        <v>107.26</v>
+        <v>100.26</v>
       </c>
       <c r="H38" s="12"/>
     </row>

--- a/#Stundenaufzeichnung_Vorlage_2023_erweiterte_Zeiten.xlsx
+++ b/#Stundenaufzeichnung_Vorlage_2023_erweiterte_Zeiten.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t xml:space="preserve">Stundenaufzeichung</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t xml:space="preserve">Summe WO1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staatsfeiertag oder so </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soft-deletes implementiert. Relationale Filter eingebaut &amp; gefixt, Besprechung, Detailansicht: Teilnehmer</t>
   </si>
   <si>
     <t xml:space="preserve">Summe WO2</t>
@@ -693,9 +699,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>7251480</xdr:colOff>
+      <xdr:colOff>7251120</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>200160</xdr:rowOff>
+      <xdr:rowOff>199800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -709,7 +715,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10081800" y="444600"/>
-          <a:ext cx="2730240" cy="1641600"/>
+          <a:ext cx="2729880" cy="1641240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -731,8 +737,8 @@
   </sheetPr>
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -996,10 +1002,11 @@
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
-      <c r="F17" s="27"/>
+      <c r="F17" s="27" t="s">
+        <v>6</v>
+      </c>
       <c r="G17" s="26" t="n">
-        <f aca="false">(C17-B17)*24-(E17-D17)*24</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1008,22 +1015,33 @@
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
-      <c r="F18" s="27"/>
+      <c r="F18" s="27" t="s">
+        <v>21</v>
+      </c>
       <c r="G18" s="26" t="n">
-        <f aca="false">(C18-B18)*24-(E18-D18)*24</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="27"/>
+      <c r="B19" s="22" t="n">
+        <v>0.302083333333333</v>
+      </c>
+      <c r="C19" s="22" t="n">
+        <v>0.645833333333333</v>
+      </c>
+      <c r="D19" s="22" t="n">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="E19" s="22" t="n">
+        <v>0.534722222222222</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>22</v>
+      </c>
       <c r="G19" s="26" t="n">
         <f aca="false">(C19-B19)*24-(E19-D19)*24</f>
-        <v>0</v>
+        <v>7.91666666666667</v>
       </c>
     </row>
     <row r="20" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1033,10 +1051,7 @@
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="27"/>
-      <c r="G20" s="26" t="n">
-        <f aca="false">(C20-B20)*24-(E20-D20)*24</f>
-        <v>0</v>
-      </c>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="21"/>
@@ -1052,7 +1067,7 @@
     </row>
     <row r="22" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="28" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
@@ -1061,7 +1076,7 @@
       <c r="F22" s="32"/>
       <c r="G22" s="31" t="n">
         <f aca="false">G17+G18+G19+G20+G21</f>
-        <v>0</v>
+        <v>23.9166666666667</v>
       </c>
     </row>
     <row r="23" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1126,7 +1141,7 @@
     </row>
     <row r="28" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="28" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
@@ -1200,7 +1215,7 @@
     </row>
     <row r="34" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="34" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B34" s="35"/>
       <c r="C34" s="36"/>
@@ -1229,11 +1244,11 @@
       <c r="D36" s="40"/>
       <c r="E36" s="40"/>
       <c r="F36" s="41" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G36" s="14" t="n">
         <f aca="false">G16+G22+G28+G34</f>
-        <v>38.5</v>
+        <v>62.4166666666667</v>
       </c>
       <c r="H36" s="42"/>
     </row>
@@ -1258,11 +1273,11 @@
       <c r="D38" s="40"/>
       <c r="E38" s="40"/>
       <c r="F38" s="41" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G38" s="17" t="n">
         <f aca="false">G37-G36</f>
-        <v>100.26</v>
+        <v>76.3433333333333</v>
       </c>
       <c r="H38" s="12"/>
     </row>
